--- a/po/data/test_data/baidu/baidu_elements.xlsx
+++ b/po/data/test_data/baidu/baidu_elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wu\Desktop\automated_ui\po\data\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_projects\automated_ui\po\data\test_data\baidu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7003B5C8-6D7E-4A7E-AF76-CD7FE4777D17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016F11E-7410-4038-B921-25A029E5E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="2985" windowWidth="18030" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,13 +136,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -458,20 +458,20 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="76.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="76.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -505,11 +505,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="C4" s="1"/>
     </row>
